--- a/data/RawData/ObsData/2001-2009/01-07-2004.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-07-2004.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\pdfData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA86577-6043-4DF9-9B13-35C7BFDE8DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148E78C-FCAC-4CC3-BA97-05B914B5E5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1292">
   <si>
     <t>Mico</t>
   </si>
@@ -7771,17 +7771,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF978C99"/>
-        <rFont val="Amasis MT Pro"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FF181515"/>
         <rFont val="Amasis MT Pro"/>
         <family val="1"/>
@@ -8732,6 +8721,9 @@
   </si>
   <si>
     <t>disp</t>
+  </si>
+  <si>
+    <t>06/02</t>
   </si>
 </sst>
 </file>
@@ -8742,7 +8734,7 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8939,12 +8931,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF181515"/>
-      <name val="Amasis MT Pro"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF978C99"/>
       <name val="Amasis MT Pro"/>
       <family val="1"/>
     </font>
@@ -9163,7 +9149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9371,10 +9357,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9410,10 +9396,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9455,7 +9441,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9642,6 +9628,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10705,8 +10694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P488" sqref="P488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10716,7 +10705,7 @@
     <col min="3" max="3" width="9.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="44" bestFit="1" customWidth="1"/>
@@ -10730,7 +10719,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="76"/>
@@ -10778,7 +10767,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="104" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K3" s="104" t="s">
         <v>7</v>
@@ -11488,7 +11477,7 @@
       </c>
       <c r="C23" s="104"/>
       <c r="D23" s="104" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E23" s="104" t="s">
         <v>14</v>
@@ -11525,7 +11514,7 @@
       </c>
       <c r="C24" s="104"/>
       <c r="D24" s="104" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E24" s="104" t="s">
         <v>22</v>
@@ -11560,7 +11549,7 @@
       </c>
       <c r="C25" s="104"/>
       <c r="D25" s="104" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E25" s="104" t="s">
         <v>22</v>
@@ -11593,13 +11582,13 @@
     <row r="26" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="106"/>
       <c r="B26" s="109" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C26" s="109" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E26" s="109" t="s">
         <v>14</v>
@@ -11784,7 +11773,7 @@
         <v>615</v>
       </c>
       <c r="D32" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E32" s="98" t="s">
         <v>14</v>
@@ -11822,9 +11811,7 @@
       <c r="E33" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="98" t="s">
-        <v>133</v>
-      </c>
+      <c r="F33" s="98"/>
       <c r="G33" s="98"/>
       <c r="H33" s="7"/>
       <c r="I33" s="117"/>
@@ -11857,9 +11844,7 @@
       <c r="E34" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="102" t="s">
-        <v>133</v>
-      </c>
+      <c r="F34" s="102"/>
       <c r="G34" s="98"/>
       <c r="H34" s="3"/>
       <c r="I34" s="117"/>
@@ -12424,7 +12409,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K51" s="98" t="s">
         <v>232</v>
@@ -12605,7 +12590,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C57" s="104" t="s">
         <v>232</v>
@@ -12690,9 +12675,7 @@
       <c r="E59" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="104" t="s">
-        <v>133</v>
-      </c>
+      <c r="F59" s="104"/>
       <c r="G59" s="104"/>
       <c r="H59" s="3"/>
       <c r="I59" s="98" t="s">
@@ -12879,8 +12862,8 @@
       <c r="E64" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="104" t="s">
-        <v>258</v>
+      <c r="F64" s="160" t="s">
+        <v>1291</v>
       </c>
       <c r="G64" s="104"/>
       <c r="H64" s="24"/>
@@ -13231,11 +13214,11 @@
     <row r="75" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="117"/>
       <c r="B75" s="107" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C75" s="107"/>
       <c r="D75" s="107" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E75" s="107" t="s">
         <v>22</v>
@@ -13268,11 +13251,11 @@
     <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117"/>
       <c r="B76" s="107" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C76" s="107"/>
       <c r="D76" s="107" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E76" s="107" t="s">
         <v>22</v>
@@ -13439,17 +13422,17 @@
         <v>371</v>
       </c>
       <c r="J81" s="98" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K81" s="98" t="s">
         <v>1239</v>
-      </c>
-      <c r="K81" s="98" t="s">
-        <v>1240</v>
       </c>
       <c r="L81" s="117"/>
       <c r="M81" s="98" t="s">
         <v>179</v>
       </c>
       <c r="N81" s="98" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O81" s="121">
         <v>4366</v>
@@ -13471,20 +13454,20 @@
       <c r="G82" s="98"/>
       <c r="H82" s="3"/>
       <c r="I82" s="98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J82" s="98" t="s">
         <v>1242</v>
       </c>
-      <c r="J82" s="98" t="s">
+      <c r="K82" s="98" t="s">
         <v>1243</v>
-      </c>
-      <c r="K82" s="98" t="s">
-        <v>1244</v>
       </c>
       <c r="L82" s="117"/>
       <c r="M82" s="98" t="s">
         <v>179</v>
       </c>
       <c r="N82" s="98" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O82" s="117"/>
     </row>
@@ -13804,7 +13787,7 @@
     </row>
     <row r="93" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="44" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B93" s="98" t="s">
         <v>348</v>
@@ -13964,9 +13947,7 @@
       <c r="M97" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="N97" s="104" t="s">
-        <v>133</v>
-      </c>
+      <c r="N97" s="104"/>
       <c r="O97" s="104"/>
     </row>
     <row r="98" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -15304,7 +15285,7 @@
       <c r="G142" s="98"/>
       <c r="H142" s="35"/>
       <c r="I142" s="104" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J142" s="104" t="s">
         <v>487</v>
@@ -15354,7 +15335,7 @@
     </row>
     <row r="144" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="98" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B144" s="99"/>
       <c r="C144" s="98"/>
@@ -15416,7 +15397,7 @@
         <v>14</v>
       </c>
       <c r="N145" s="110" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="O145" s="109"/>
     </row>
@@ -15441,11 +15422,11 @@
       <c r="H146" s="35"/>
       <c r="I146" s="106"/>
       <c r="J146" s="127" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="K146" s="104"/>
       <c r="L146" s="127" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M146" s="104" t="s">
         <v>22</v>
@@ -15476,11 +15457,11 @@
       <c r="H147" s="35"/>
       <c r="I147" s="106"/>
       <c r="J147" s="128" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K147" s="104"/>
       <c r="L147" s="128" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M147" s="104" t="s">
         <v>22</v>
@@ -15543,7 +15524,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C150" s="98" t="s">
         <v>232</v>
@@ -15593,9 +15574,7 @@
       <c r="E151" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="98" t="s">
-        <v>133</v>
-      </c>
+      <c r="F151" s="98"/>
       <c r="G151" s="98">
         <v>4899</v>
       </c>
@@ -15736,7 +15715,7 @@
         <v>6</v>
       </c>
       <c r="J155" s="104" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K155" s="104" t="s">
         <v>232</v>
@@ -15854,7 +15833,7 @@
         <v>6</v>
       </c>
       <c r="B159" s="104" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C159" s="104" t="s">
         <v>232</v>
@@ -16745,9 +16724,7 @@
       <c r="E185" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="F185" s="98" t="s">
-        <v>133</v>
-      </c>
+      <c r="F185" s="98"/>
       <c r="G185" s="103">
         <v>4289</v>
       </c>
@@ -17057,7 +17034,7 @@
       <c r="G195" s="98"/>
       <c r="H195" s="7"/>
       <c r="I195" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J195" s="98"/>
       <c r="K195" s="98"/>
@@ -17081,7 +17058,7 @@
         <v>517</v>
       </c>
       <c r="J196" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K196" s="98" t="s">
         <v>518</v>
@@ -17111,7 +17088,7 @@
       <c r="G197" s="98"/>
       <c r="H197" s="24"/>
       <c r="I197" s="131" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J197" s="98" t="s">
         <v>730</v>
@@ -17378,7 +17355,7 @@
         <v>6</v>
       </c>
       <c r="B206" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C206" s="98" t="s">
         <v>232</v>
@@ -17431,7 +17408,7 @@
         <v>517</v>
       </c>
       <c r="J207" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K207" s="98" t="s">
         <v>518</v>
@@ -18190,13 +18167,13 @@
       <c r="H229" s="6"/>
       <c r="I229" s="117"/>
       <c r="J229" s="98" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K229" s="98" t="s">
         <v>368</v>
       </c>
       <c r="L229" s="98" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M229" s="98" t="s">
         <v>22</v>
@@ -18301,13 +18278,13 @@
       <c r="H232" s="8"/>
       <c r="I232" s="117"/>
       <c r="J232" s="130" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K232" s="130" t="s">
         <v>32</v>
       </c>
       <c r="L232" s="130" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M232" s="136" t="s">
         <v>509</v>
@@ -18769,7 +18746,7 @@
         <v>517</v>
       </c>
       <c r="J247" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K247" s="98" t="s">
         <v>862</v>
@@ -19152,7 +19129,7 @@
         <v>6</v>
       </c>
       <c r="B259" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C259" s="98" t="s">
         <v>232</v>
@@ -19794,9 +19771,7 @@
       <c r="M276" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="N276" s="98" t="s">
-        <v>516</v>
-      </c>
+      <c r="N276" s="98"/>
       <c r="O276" s="117"/>
     </row>
     <row r="277" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19819,9 +19794,7 @@
       <c r="M277" s="98" t="s">
         <v>511</v>
       </c>
-      <c r="N277" s="98" t="s">
-        <v>516</v>
-      </c>
+      <c r="N277" s="98"/>
       <c r="O277" s="117"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
@@ -20082,13 +20055,13 @@
         <v>932</v>
       </c>
       <c r="B285" s="109" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C285" s="109" t="s">
         <v>602</v>
       </c>
       <c r="D285" s="109" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E285" s="109" t="s">
         <v>22</v>
@@ -20115,13 +20088,13 @@
     <row r="286" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="104"/>
       <c r="B286" s="104" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C286" s="104" t="s">
         <v>606</v>
       </c>
       <c r="D286" s="104" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E286" s="104" t="s">
         <v>14</v>
@@ -20175,13 +20148,13 @@
     <row r="288" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="104"/>
       <c r="B288" s="104" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C288" s="104" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D288" s="104" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E288" s="104" t="s">
         <v>22</v>
@@ -20216,13 +20189,13 @@
     <row r="289" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="104"/>
       <c r="B289" s="109" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C289" s="109" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D289" s="109" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E289" s="109" t="s">
         <v>14</v>
@@ -20330,9 +20303,7 @@
       <c r="M292" s="98" t="s">
         <v>511</v>
       </c>
-      <c r="N292" s="98" t="s">
-        <v>516</v>
-      </c>
+      <c r="N292" s="98"/>
       <c r="O292" s="117"/>
     </row>
     <row r="293" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20574,7 +20545,7 @@
       <c r="G300" s="98"/>
       <c r="H300" s="90"/>
       <c r="I300" s="98" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J300" s="99"/>
       <c r="K300" s="117"/>
@@ -20693,7 +20664,7 @@
         <v>6</v>
       </c>
       <c r="B304" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C304" s="98" t="s">
         <v>993</v>
@@ -20832,22 +20803,22 @@
     </row>
     <row r="308" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="98" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B308" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="B308" s="98" t="s">
+      <c r="C308" s="98" t="s">
         <v>1247</v>
       </c>
-      <c r="C308" s="98" t="s">
+      <c r="D308" s="98" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E308" s="136" t="s">
         <v>1248</v>
       </c>
-      <c r="D308" s="98" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E308" s="136" t="s">
+      <c r="F308" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F308" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G308" s="117"/>
       <c r="H308" s="20"/>
@@ -20872,13 +20843,13 @@
     <row r="309" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="117"/>
       <c r="B309" s="98" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C309" s="98" t="s">
         <v>1251</v>
       </c>
-      <c r="C309" s="98" t="s">
-        <v>1252</v>
-      </c>
       <c r="D309" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E309" s="98" t="s">
         <v>937</v>
@@ -20903,19 +20874,19 @@
     <row r="310" spans="1:15" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="117"/>
       <c r="B310" s="98" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C310" s="98" t="s">
         <v>1253</v>
       </c>
-      <c r="C310" s="98" t="s">
+      <c r="D310" s="136" t="s">
         <v>1254</v>
       </c>
-      <c r="D310" s="136" t="s">
+      <c r="E310" s="136" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F310" s="98" t="s">
         <v>1255</v>
-      </c>
-      <c r="E310" s="136" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F310" s="98" t="s">
-        <v>1256</v>
       </c>
       <c r="G310" s="117"/>
       <c r="H310" s="51"/>
@@ -20930,19 +20901,19 @@
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="117"/>
       <c r="B311" s="136" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C311" s="98" t="s">
         <v>1257</v>
       </c>
-      <c r="C311" s="98" t="s">
+      <c r="D311" s="98" t="s">
         <v>1258</v>
-      </c>
-      <c r="D311" s="98" t="s">
-        <v>1259</v>
       </c>
       <c r="E311" s="98" t="s">
         <v>935</v>
       </c>
       <c r="F311" s="98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G311" s="117"/>
       <c r="H311" s="43"/>
@@ -20971,19 +20942,19 @@
     <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="117"/>
       <c r="B312" s="98" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C312" s="98" t="s">
         <v>1260</v>
       </c>
-      <c r="C312" s="98" t="s">
-        <v>1261</v>
-      </c>
       <c r="D312" s="98" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E312" s="98" t="s">
         <v>935</v>
       </c>
       <c r="F312" s="98" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G312" s="117"/>
       <c r="H312" s="43"/>
@@ -21008,19 +20979,19 @@
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="117"/>
       <c r="B313" s="98" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C313" s="98" t="s">
         <v>1263</v>
       </c>
-      <c r="C313" s="98" t="s">
-        <v>1264</v>
-      </c>
       <c r="D313" s="98" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E313" s="136" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F313" s="98" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G313" s="117"/>
       <c r="H313" s="43"/>
@@ -21045,13 +21016,13 @@
     <row r="314" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="117"/>
       <c r="B314" s="98" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C314" s="98" t="s">
         <v>1265</v>
       </c>
-      <c r="C314" s="98" t="s">
-        <v>1266</v>
-      </c>
       <c r="D314" s="98" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E314" s="98" t="s">
         <v>935</v>
@@ -21082,13 +21053,13 @@
     <row r="315" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="117"/>
       <c r="B315" s="98" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C315" s="98" t="s">
         <v>1267</v>
       </c>
-      <c r="C315" s="98" t="s">
-        <v>1268</v>
-      </c>
       <c r="D315" s="98" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E315" s="98" t="s">
         <v>935</v>
@@ -21146,9 +21117,7 @@
       <c r="E317" s="104" t="s">
         <v>937</v>
       </c>
-      <c r="F317" s="104" t="s">
-        <v>1018</v>
-      </c>
+      <c r="F317" s="104"/>
       <c r="G317" s="106"/>
       <c r="H317" s="43"/>
       <c r="I317" s="117"/>
@@ -22091,7 +22060,7 @@
       </c>
       <c r="K344" s="104"/>
       <c r="L344" s="104" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M344" s="104" t="s">
         <v>14</v>
@@ -22126,7 +22095,7 @@
       </c>
       <c r="K345" s="104"/>
       <c r="L345" s="104" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M345" s="104" t="s">
         <v>22</v>
@@ -22176,7 +22145,7 @@
       <c r="G347" s="109"/>
       <c r="H347" s="25"/>
       <c r="I347" s="98" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J347" s="99"/>
       <c r="K347" s="117"/>
@@ -22202,19 +22171,19 @@
         <v>6</v>
       </c>
       <c r="J348" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K348" s="98" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L348" s="98" t="s">
         <v>1197</v>
       </c>
-      <c r="L348" s="98" t="s">
+      <c r="M348" s="98" t="s">
         <v>1198</v>
       </c>
-      <c r="M348" s="98" t="s">
+      <c r="N348" s="98" t="s">
         <v>1199</v>
-      </c>
-      <c r="N348" s="98" t="s">
-        <v>1200</v>
       </c>
       <c r="O348" s="99" t="s">
         <v>236</v>
@@ -22230,13 +22199,13 @@
       <c r="G349" s="97"/>
       <c r="H349" s="6"/>
       <c r="I349" s="159" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J349" s="98" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K349" s="98" t="s">
         <v>1201</v>
-      </c>
-      <c r="K349" s="98" t="s">
-        <v>1202</v>
       </c>
       <c r="L349" s="98" t="s">
         <v>207</v>
@@ -22270,13 +22239,13 @@
       <c r="H350" s="10"/>
       <c r="I350" s="117"/>
       <c r="J350" s="159" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K350" s="159" t="s">
         <v>652</v>
       </c>
       <c r="L350" s="98" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M350" s="98" t="s">
         <v>1132</v>
@@ -22299,10 +22268,10 @@
       <c r="H351" s="46"/>
       <c r="I351" s="117"/>
       <c r="J351" s="98" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K351" s="98" t="s">
         <v>1203</v>
-      </c>
-      <c r="K351" s="98" t="s">
-        <v>1204</v>
       </c>
       <c r="L351" s="148">
         <v>461</v>
@@ -22311,7 +22280,7 @@
         <v>1131</v>
       </c>
       <c r="N351" s="98" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O351" s="99"/>
     </row>
@@ -22336,10 +22305,10 @@
       <c r="H352" s="47"/>
       <c r="I352" s="117"/>
       <c r="J352" s="98" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K352" s="98" t="s">
         <v>1206</v>
-      </c>
-      <c r="K352" s="98" t="s">
-        <v>1207</v>
       </c>
       <c r="L352" s="148">
         <v>514</v>
@@ -22348,7 +22317,7 @@
         <v>1132</v>
       </c>
       <c r="N352" s="98" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O352" s="99"/>
     </row>
@@ -22373,13 +22342,13 @@
       <c r="H353" s="55"/>
       <c r="I353" s="117"/>
       <c r="J353" s="98" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K353" s="98" t="s">
         <v>1209</v>
       </c>
-      <c r="K353" s="98" t="s">
-        <v>1210</v>
-      </c>
       <c r="L353" s="98" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M353" s="98" t="s">
         <v>1131</v>
@@ -22410,13 +22379,13 @@
       <c r="H354" s="24"/>
       <c r="I354" s="117"/>
       <c r="J354" s="98" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K354" s="98" t="s">
         <v>1211</v>
       </c>
-      <c r="K354" s="98" t="s">
-        <v>1212</v>
-      </c>
       <c r="L354" s="98" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M354" s="98" t="s">
         <v>1132</v>
@@ -22429,13 +22398,13 @@
     <row r="355" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="158"/>
       <c r="B355" s="98" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C355" s="98" t="s">
         <v>128</v>
       </c>
       <c r="D355" s="98" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E355" s="98" t="s">
         <v>22</v>
@@ -22447,13 +22416,13 @@
       <c r="H355" s="94"/>
       <c r="I355" s="117"/>
       <c r="J355" s="98" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K355" s="98" t="s">
         <v>1158</v>
       </c>
       <c r="L355" s="98" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M355" s="98" t="s">
         <v>1132</v>
@@ -22486,16 +22455,16 @@
       <c r="G357" s="137"/>
       <c r="H357" s="95"/>
       <c r="I357" s="104" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J357" s="104" t="s">
         <v>1214</v>
       </c>
-      <c r="J357" s="104" t="s">
+      <c r="K357" s="104" t="s">
         <v>1215</v>
       </c>
-      <c r="K357" s="104" t="s">
-        <v>1216</v>
-      </c>
       <c r="L357" s="104" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M357" s="104" t="s">
         <v>1131</v>
@@ -22508,7 +22477,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C358" s="98" t="s">
         <v>1153</v>
@@ -22528,13 +22497,13 @@
       <c r="H358" s="95"/>
       <c r="I358" s="106"/>
       <c r="J358" s="104" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K358" s="104" t="s">
         <v>1217</v>
       </c>
-      <c r="K358" s="104" t="s">
-        <v>1218</v>
-      </c>
       <c r="L358" s="104" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M358" s="104" t="s">
         <v>1132</v>
@@ -22563,13 +22532,13 @@
       <c r="H359" s="95"/>
       <c r="I359" s="106"/>
       <c r="J359" s="104" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K359" s="104" t="s">
         <v>1219</v>
       </c>
-      <c r="K359" s="104" t="s">
-        <v>1220</v>
-      </c>
       <c r="L359" s="104" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="M359" s="104" t="s">
         <v>1131</v>
@@ -22596,10 +22565,10 @@
       <c r="H360" s="95"/>
       <c r="I360" s="106"/>
       <c r="J360" s="104" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K360" s="104" t="s">
         <v>1221</v>
-      </c>
-      <c r="K360" s="104" t="s">
-        <v>1222</v>
       </c>
       <c r="L360" s="149">
         <v>460</v>
@@ -22633,13 +22602,13 @@
       <c r="H361" s="95"/>
       <c r="I361" s="106"/>
       <c r="J361" s="104" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K361" s="104" t="s">
         <v>1223</v>
       </c>
-      <c r="K361" s="104" t="s">
-        <v>1224</v>
-      </c>
       <c r="L361" s="104" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M361" s="104" t="s">
         <v>1131</v>
@@ -22667,13 +22636,13 @@
       <c r="G362" s="99"/>
       <c r="I362" s="106"/>
       <c r="J362" s="104" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K362" s="104" t="s">
         <v>1225</v>
       </c>
-      <c r="K362" s="104" t="s">
-        <v>1226</v>
-      </c>
       <c r="L362" s="104" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M362" s="104" t="s">
         <v>1132</v>
@@ -22705,7 +22674,7 @@
         <v>508</v>
       </c>
       <c r="K363" s="104" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L363" s="149">
         <v>508</v>
@@ -22800,7 +22769,7 @@
         <v>511</v>
       </c>
       <c r="K366" s="104" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L366" s="149">
         <v>511</v>
@@ -22866,7 +22835,7 @@
         <v>557</v>
       </c>
       <c r="K368" s="104" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L368" s="149">
         <v>557</v>
@@ -22875,7 +22844,7 @@
         <v>1132</v>
       </c>
       <c r="N368" s="104" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O368" s="104"/>
     </row>
@@ -22901,7 +22870,7 @@
         <v>558</v>
       </c>
       <c r="K369" s="104" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L369" s="149">
         <v>558</v>
@@ -22910,7 +22879,7 @@
         <v>1132</v>
       </c>
       <c r="N369" s="104" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O369" s="104"/>
     </row>
@@ -23143,9 +23112,7 @@
       <c r="E379" s="104" t="s">
         <v>1131</v>
       </c>
-      <c r="F379" s="104" t="s">
-        <v>1190</v>
-      </c>
+      <c r="F379" s="104"/>
       <c r="G379" s="104"/>
       <c r="H379" s="57"/>
       <c r="I379" s="65"/>
@@ -23162,7 +23129,7 @@
         <v>628</v>
       </c>
       <c r="C380" s="104" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D380" s="149">
         <v>628</v>
@@ -23171,7 +23138,7 @@
         <v>1131</v>
       </c>
       <c r="F380" s="104" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G380" s="104"/>
       <c r="H380" s="56"/>
@@ -23188,7 +23155,7 @@
         <v>630</v>
       </c>
       <c r="C381" s="104" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D381" s="149">
         <v>630</v>
@@ -23197,7 +23164,7 @@
         <v>1131</v>
       </c>
       <c r="F381" s="104" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G381" s="104"/>
       <c r="H381" s="24"/>
@@ -23224,7 +23191,7 @@
     </row>
     <row r="383" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="151" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B383" s="132">
         <v>675</v>
@@ -23239,7 +23206,7 @@
         <v>659</v>
       </c>
       <c r="F383" s="98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G383" s="98"/>
       <c r="H383" s="24"/>
@@ -23266,7 +23233,7 @@
         <v>536</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G384" s="98"/>
       <c r="H384" s="24"/>
@@ -23293,7 +23260,7 @@
         <v>511</v>
       </c>
       <c r="F385" s="98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G385" s="98"/>
       <c r="H385" s="24"/>
@@ -23318,7 +23285,7 @@
         <v>536</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G386" s="98"/>
       <c r="H386" s="24"/>
@@ -23343,7 +23310,7 @@
         <v>511</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G387" s="98"/>
       <c r="H387" s="24"/>
